--- a/data/trans_camb/P32B-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.44330167808788</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.313744369122829</v>
+        <v>2.313744369122828</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.357012791699835</v>
+        <v>1.334794928132924</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8839742343001046</v>
+        <v>0.8422478339309221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.046866518121287</v>
+        <v>1.149742313411896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.243038278116998</v>
+        <v>-3.612038316710563</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.749054176050866</v>
+        <v>-2.689144638845162</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.464058923747207</v>
+        <v>-1.697455597037837</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3580472471436964</v>
+        <v>0.537037513790272</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1420026086395504</v>
+        <v>0.1677381112585115</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7459022157971306</v>
+        <v>0.6465928139340607</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.204049398562897</v>
+        <v>4.988312311869182</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.165918231750077</v>
+        <v>4.277084555306767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.392586919535916</v>
+        <v>6.041876112282321</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3350449354145711</v>
+        <v>0.3639308467568015</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.281762500806243</v>
+        <v>1.284626040267882</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.510890637626755</v>
+        <v>3.38722017387372</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.12170817095734</v>
+        <v>3.323872528786355</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.790502223505806</v>
+        <v>2.643925609736714</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.51216379182845</v>
+        <v>4.153522078909347</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>1.777679269429507</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.849782178039196</v>
+        <v>2.849782178039195</v>
       </c>
     </row>
     <row r="8">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6456721585706724</v>
+        <v>0.3509219333433191</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.07419367657896242</v>
+        <v>-0.0001821421378402389</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03814183184400553</v>
+        <v>-0.3413261783696554</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.04058593518333804</v>
+        <v>0.1044079653961258</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1893030642555524</v>
+        <v>-0.1845893912309625</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2351854267454877</v>
+        <v>0.05719279755496234</v>
       </c>
     </row>
     <row r="9">
@@ -815,13 +815,13 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>11.30357636732881</v>
+        <v>11.6024004102571</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>9.652827310475987</v>
+        <v>9.883890578601669</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>14.96029078717274</v>
+        <v>12.48339670957855</v>
       </c>
     </row>
     <row r="10">
@@ -871,31 +871,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5219195528105771</v>
+        <v>0.473026411674645</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1045688423939892</v>
+        <v>-0.07008359992352792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.04613756049094413</v>
+        <v>-0.09012140045580339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.390867588143988</v>
+        <v>-1.635741740493692</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.079655632567787</v>
+        <v>-1.05204083962696</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.429407699522882</v>
+        <v>-1.555913882712091</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1314846477648568</v>
+        <v>0.2593370065675914</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.1013327625281388</v>
+        <v>0.004168788478906979</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.02478960297419715</v>
+        <v>-0.0401082070271549</v>
       </c>
     </row>
     <row r="12">
@@ -906,31 +906,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.414209912292256</v>
+        <v>3.287837618343824</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.573580579632758</v>
+        <v>2.814782485170527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.770555036454454</v>
+        <v>3.747664865813084</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.731874225755452</v>
+        <v>1.7436933195093</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.222155960571454</v>
+        <v>2.259779081759273</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.586089955282938</v>
+        <v>1.444282892248071</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.277682631972905</v>
+        <v>2.319135764803586</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.055754483090738</v>
+        <v>2.05598967665265</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.70302335918059</v>
+        <v>2.632449046705896</v>
       </c>
     </row>
     <row r="13">
@@ -976,25 +976,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06652610551099716</v>
+        <v>0.094272268417737</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2939626642508118</v>
+        <v>-0.2874791205344852</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3069544933057856</v>
+        <v>-0.5035746202724366</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.03843298125995689</v>
+        <v>0.06207695701891962</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1444953120947947</v>
+        <v>-0.1160969940115936</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1828133794222335</v>
+        <v>-0.2513657091318919</v>
       </c>
     </row>
     <row r="15">
@@ -1005,25 +1007,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15.5108201737118</v>
+        <v>15.15168769746059</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13.79310226571939</v>
+        <v>11.13189161307105</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17.61380738626739</v>
+        <v>12.72884162255441</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>6.739892801040922</v>
+        <v>6.554040405101582</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.526339570575479</v>
+        <v>5.710078164241479</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.932539276647955</v>
+        <v>6.641280915210335</v>
       </c>
     </row>
     <row r="16">
@@ -1073,31 +1075,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1016447121326571</v>
+        <v>0.08181528082670547</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7967241455820567</v>
+        <v>-0.7782542143163684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4814176363036086</v>
+        <v>-0.3706533235239949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.02763436559887</v>
+        <v>-1.044767237248458</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.442378939119453</v>
+        <v>-2.575984325346011</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1756568100588809</v>
+        <v>-0.5414522221928102</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.01474353536736232</v>
+        <v>-0.04576344107317604</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8334931158881868</v>
+        <v>-0.8676040092792261</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.03019800832389019</v>
+        <v>0.0252319374226498</v>
       </c>
     </row>
     <row r="18">
@@ -1108,31 +1110,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.377107663843794</v>
+        <v>3.703715175471893</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.814469962566389</v>
+        <v>1.796599483279843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.603801709787144</v>
+        <v>2.861091492538714</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.134753374382958</v>
+        <v>2.120502213215128</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.969861697743041</v>
+        <v>3.990512413366867</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.436682904222768</v>
+        <v>2.374309618485198</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9930653532016458</v>
+        <v>0.8804205121399952</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.618112996762225</v>
+        <v>2.693311313080778</v>
       </c>
     </row>
     <row r="19">
@@ -1158,7 +1160,7 @@
         <v>-1</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.067090296580315</v>
+        <v>2.067090296580314</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.198993989220899</v>
@@ -1178,25 +1180,27 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2163938249759131</v>
+        <v>-0.223964579237858</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6358413087532357</v>
+        <v>-0.5922044550716083</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4753002620336708</v>
+        <v>-0.3820837578907977</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-0.8455502873483067</v>
+      </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1506334728048827</v>
+        <v>-0.175890061746128</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6529963135147669</v>
+        <v>-0.7056580957464725</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1375077726463425</v>
+        <v>-0.167898127609564</v>
       </c>
     </row>
     <row r="21">
@@ -1207,25 +1211,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.899840080122035</v>
+        <v>7.706208779401202</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.92215328256457</v>
+        <v>4.013782807738861</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.261529477708213</v>
+        <v>6.98187266872788</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>5.105113874595067</v>
+        <v>5.08002149726712</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.140100190243898</v>
+        <v>2.156400620820297</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>5.643064514583719</v>
+        <v>5.352814402831303</v>
       </c>
     </row>
     <row r="22">
@@ -1255,7 +1259,7 @@
         <v>0.5845108207077369</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.9362131265696997</v>
+        <v>0.9362131265696993</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.098651083574701</v>
@@ -1275,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7008228297963205</v>
+        <v>0.7046535897280533</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2713416481910376</v>
+        <v>0.2629141142094026</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1091488763639231</v>
+        <v>-0.225978824674595</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.674345499521563</v>
+        <v>-5.367534922921601</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.570578161247993</v>
+        <v>-2.882095945858215</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.173080596415898</v>
+        <v>-2.208127864685106</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2392316842835864</v>
+        <v>-0.2936708538473153</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.08353046916263815</v>
+        <v>-0.1410555870157848</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.1778001457048181</v>
+        <v>-0.1798801706962497</v>
       </c>
     </row>
     <row r="24">
@@ -1310,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.476479420245814</v>
+        <v>5.244698839721365</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.127270686465797</v>
+        <v>4.23958801021888</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.404041591041342</v>
+        <v>2.449844962220327</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.21183022650422</v>
+        <v>3.295437571199046</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.762765843954678</v>
+        <v>3.975383508700647</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.844418192881887</v>
+        <v>2.668114259722295</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.028484202791364</v>
+        <v>3.070545505010156</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.55310737216978</v>
+        <v>2.449365838972713</v>
       </c>
     </row>
     <row r="25">
@@ -1360,7 +1364,7 @@
         <v>0.3795383348096891</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6079079436972571</v>
+        <v>0.6079079436972569</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.490872361502082</v>
@@ -1384,15 +1388,17 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr"/>
+      <c r="H26" s="6" t="n">
+        <v>-0.8362477413560317</v>
+      </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4886776160874832</v>
+        <v>-0.5487185423578378</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3496337947614733</v>
+        <v>-0.3725742012169266</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.344321766106743</v>
+        <v>-0.4221688036471927</v>
       </c>
     </row>
     <row r="27">
@@ -1408,9 +1414,15 @@
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
-      <c r="I27" s="6" t="inlineStr"/>
-      <c r="J27" s="6" t="inlineStr"/>
-      <c r="K27" s="6" t="inlineStr"/>
+      <c r="I27" s="6" t="n">
+        <v>10.46789888855851</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>11.13148631487947</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>10.90140059895164</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1459,31 +1471,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.321609391886768</v>
+        <v>1.333353563500915</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5537279231436104</v>
+        <v>0.6255083893476585</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5210948286943754</v>
+        <v>0.554106850342365</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.191980770196247</v>
+        <v>-1.140763037808483</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.8025227766166064</v>
+        <v>-0.8593889176193898</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.0919166740340302</v>
+        <v>-0.07962407786306439</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7288304786186652</v>
+        <v>0.7504183345069632</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3632083208622799</v>
+        <v>0.3496644010215738</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5799792801857137</v>
+        <v>0.6094838787670296</v>
       </c>
     </row>
     <row r="30">
@@ -1494,31 +1506,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.055237943362374</v>
+        <v>3.032298111735917</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.159699291441545</v>
+        <v>2.181614007634538</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.282736560848221</v>
+        <v>2.406875952085362</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.552229216035671</v>
+        <v>0.4438046000512844</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9125096111686479</v>
+        <v>0.9216361865732459</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.304941072426762</v>
+        <v>2.272182282635778</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.981423512303822</v>
+        <v>1.968526411055004</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.562277013604191</v>
+        <v>1.498599018662174</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.933510136768215</v>
+        <v>1.910531153440832</v>
       </c>
     </row>
     <row r="31">
@@ -1553,7 +1565,7 @@
         <v>1.15195930734894</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.524767983852983</v>
+        <v>1.524767983852982</v>
       </c>
     </row>
     <row r="32">
@@ -1564,31 +1576,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>1.211886739296251</v>
+        <v>1.115367581718032</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4331150951246845</v>
+        <v>0.5444201565971083</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.421697647405845</v>
+        <v>0.3766163896211886</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7597310180875791</v>
+        <v>-0.7827559757881556</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5776785717877906</v>
+        <v>-0.6043713027658993</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.149649006721326</v>
+        <v>-0.15897912298814</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6074451017328559</v>
+        <v>0.6348380047413071</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3015456510980438</v>
+        <v>0.2954274645188148</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5270385454135713</v>
+        <v>0.4964356697910359</v>
       </c>
     </row>
     <row r="33">
@@ -1599,31 +1611,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>6.595572576882437</v>
+        <v>6.36953188165746</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.396627940935676</v>
+        <v>4.779100365328289</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.790143424703301</v>
+        <v>4.843570502576074</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.207846306990734</v>
+        <v>0.9870982942484265</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.879729812569394</v>
+        <v>1.974156043176564</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>4.290209989070021</v>
+        <v>4.462418487160838</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>3.438086969100954</v>
+        <v>3.486103317612308</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.790672432992146</v>
+        <v>2.59577734407782</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.280860302934678</v>
+        <v>3.140982166583866</v>
       </c>
     </row>
     <row r="34">
